--- a/doc/amap_poicode.xlsx
+++ b/doc/amap_poicode.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\git-hub\AMapPoiGet\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="3500" windowWidth="15800" windowHeight="6820" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4720" yWindow="3500" windowWidth="15800" windowHeight="6820" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="变更履历" sheetId="2" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'POI分类与编码（中英文）'!$A$1:$H$870</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">变更履历!$A$1:$D$29</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5800" uniqueCount="2501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5800" uniqueCount="2502">
   <si>
     <t>序号</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -7810,13 +7815,17 @@
   </si>
   <si>
     <t>编码表更新时间：2017年8月10日</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会团体</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8837,48 +8846,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="说明文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="无色" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9187,15 +9196,15 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" style="11" customWidth="1"/>
-    <col min="3" max="4" width="19.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" style="11" customWidth="1"/>
+    <col min="3" max="4" width="19.81640625" style="11" customWidth="1"/>
     <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -9209,7 +9218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -9223,7 +9232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39">
+    <row r="3" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -9237,7 +9246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26">
+    <row r="4" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -9251,7 +9260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="52">
+    <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -9265,7 +9274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="243" customHeight="1">
+    <row r="6" spans="1:4" ht="243" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -9279,7 +9288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -9293,7 +9302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39">
+    <row r="8" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -9307,7 +9316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26">
+    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -9321,7 +9330,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39">
+    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -9335,7 +9344,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="26">
+    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -9349,7 +9358,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="39">
+    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -9363,7 +9372,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26">
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9377,7 +9386,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9391,7 +9400,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9405,7 +9414,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="52">
+    <row r="16" spans="1:4" ht="52" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9419,7 +9428,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9433,7 +9442,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="26">
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9447,7 +9456,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39">
+    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9461,7 +9470,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="26">
+    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9475,7 +9484,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="39">
+    <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9489,7 +9498,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="26">
+    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9503,7 +9512,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="39">
+    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9517,7 +9526,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39">
+    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9531,7 +9540,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9545,7 +9554,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="26">
+    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9559,7 +9568,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="26">
+    <row r="27" spans="1:4" ht="26" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9573,7 +9582,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="45"/>
       <c r="C28" s="45"/>
@@ -9599,16 +9608,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="92" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256">
+    <row r="1" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A1" s="51"/>
       <c r="B1" s="56"/>
       <c r="C1" s="52"/>
@@ -9866,7 +9875,7 @@
       <c r="IU1" s="50"/>
       <c r="IV1" s="50"/>
     </row>
-    <row r="2" spans="1:256" ht="17">
+    <row r="2" spans="1:256" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A2" s="55"/>
       <c r="B2" s="57"/>
       <c r="C2" s="53"/>
@@ -10124,7 +10133,7 @@
       <c r="IU2" s="50"/>
       <c r="IV2" s="50"/>
     </row>
-    <row r="3" spans="1:256" ht="17">
+    <row r="3" spans="1:256" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
       <c r="B3" s="58" t="s">
         <v>2500</v>
@@ -10384,7 +10393,7 @@
       <c r="IU3" s="50"/>
       <c r="IV3" s="50"/>
     </row>
-    <row r="4" spans="1:256" ht="17">
+    <row r="4" spans="1:256" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
       <c r="B4" s="59"/>
       <c r="C4" s="53"/>
@@ -10642,7 +10651,7 @@
       <c r="IU4" s="50"/>
       <c r="IV4" s="50"/>
     </row>
-    <row r="5" spans="1:256" ht="17">
+    <row r="5" spans="1:256" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
       <c r="B5" s="60" t="s">
         <v>2499</v>
@@ -10902,7 +10911,7 @@
       <c r="IU5" s="50"/>
       <c r="IV5" s="50"/>
     </row>
-    <row r="6" spans="1:256" ht="17">
+    <row r="6" spans="1:256" ht="17.5" x14ac:dyDescent="0.25">
       <c r="B6" s="54"/>
     </row>
   </sheetData>
@@ -10920,27 +10929,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H871"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G868" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="G538" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="G875" sqref="G875"/>
+      <selection pane="bottomRight" activeCell="D557" sqref="D557"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="42.1640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6328125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="42.1796875" style="6" customWidth="1"/>
     <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -10966,7 +10975,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -10992,7 +11001,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -11018,7 +11027,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -11044,7 +11053,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -11070,7 +11079,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -11096,7 +11105,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -11122,7 +11131,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -11148,7 +11157,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -11174,7 +11183,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -11200,7 +11209,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -11226,7 +11235,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -11252,7 +11261,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -11278,7 +11287,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -11304,7 +11313,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -11330,7 +11339,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -11356,7 +11365,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -11382,7 +11391,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -11408,7 +11417,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -11434,7 +11443,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -11460,7 +11469,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -11486,7 +11495,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -11512,7 +11521,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -11538,7 +11547,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -11564,7 +11573,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -11590,7 +11599,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -11616,7 +11625,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -11642,7 +11651,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -11668,7 +11677,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -11694,7 +11703,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -11720,7 +11729,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -11746,7 +11755,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -11772,7 +11781,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -11798,7 +11807,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -11824,7 +11833,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -11850,7 +11859,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -11876,7 +11885,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -11902,7 +11911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -11928,7 +11937,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -11954,7 +11963,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -11980,7 +11989,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -12006,7 +12015,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -12032,7 +12041,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -12058,7 +12067,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -12084,7 +12093,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -12110,7 +12119,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -12136,7 +12145,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -12162,7 +12171,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -12188,7 +12197,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -12214,7 +12223,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -12240,7 +12249,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -12266,7 +12275,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -12292,7 +12301,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -12318,7 +12327,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -12344,7 +12353,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -12370,7 +12379,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -12396,7 +12405,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -12422,7 +12431,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -12448,7 +12457,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -12474,7 +12483,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -12500,7 +12509,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -12526,7 +12535,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -12552,7 +12561,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -12578,7 +12587,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -12604,7 +12613,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -12630,7 +12639,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -12656,7 +12665,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -12682,7 +12691,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -12708,7 +12717,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -12734,7 +12743,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -12760,7 +12769,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -12786,7 +12795,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -12812,7 +12821,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -12838,7 +12847,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -12864,7 +12873,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -12890,7 +12899,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -12916,7 +12925,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -12942,7 +12951,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -12968,7 +12977,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -12994,7 +13003,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -13020,7 +13029,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -13046,7 +13055,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -13072,7 +13081,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -13098,7 +13107,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -13124,7 +13133,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -13150,7 +13159,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -13176,7 +13185,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -13202,7 +13211,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -13228,7 +13237,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -13254,7 +13263,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -13280,7 +13289,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -13306,7 +13315,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -13332,7 +13341,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -13358,7 +13367,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -13384,7 +13393,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -13410,7 +13419,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -13436,7 +13445,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -13462,7 +13471,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -13488,7 +13497,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -13514,7 +13523,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -13540,7 +13549,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -13566,7 +13575,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -13592,7 +13601,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -13618,7 +13627,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -13644,7 +13653,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -13670,7 +13679,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -13696,7 +13705,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -13722,7 +13731,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -13748,7 +13757,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -13774,7 +13783,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -13800,7 +13809,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -13826,7 +13835,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -13852,7 +13861,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -13878,7 +13887,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -13904,7 +13913,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -13930,7 +13939,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -13956,7 +13965,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -13982,7 +13991,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -14008,7 +14017,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -14034,7 +14043,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -14060,7 +14069,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -14086,7 +14095,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -14112,7 +14121,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -14138,7 +14147,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -14164,7 +14173,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -14190,7 +14199,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -14216,7 +14225,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -14242,7 +14251,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -14268,7 +14277,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -14294,7 +14303,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -14320,7 +14329,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -14346,7 +14355,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -14372,7 +14381,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -14398,7 +14407,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -14424,7 +14433,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -14450,7 +14459,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -14476,7 +14485,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -14502,7 +14511,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -14528,7 +14537,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -14554,7 +14563,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -14580,7 +14589,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -14606,7 +14615,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -14632,7 +14641,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -14658,7 +14667,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -14684,7 +14693,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -14710,7 +14719,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -14736,7 +14745,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -14762,7 +14771,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -14788,7 +14797,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -14814,7 +14823,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -14840,7 +14849,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -14866,7 +14875,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -14892,7 +14901,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -14918,7 +14927,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -14944,7 +14953,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -14970,7 +14979,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -14996,7 +15005,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -15022,7 +15031,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -15048,7 +15057,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -15074,7 +15083,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -15100,7 +15109,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -15126,7 +15135,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -15152,7 +15161,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -15178,7 +15187,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -15204,7 +15213,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -15230,7 +15239,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -15256,7 +15265,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -15282,7 +15291,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -15308,7 +15317,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -15334,7 +15343,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -15360,7 +15369,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -15386,7 +15395,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -15412,7 +15421,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -15438,7 +15447,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -15464,7 +15473,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -15490,7 +15499,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -15516,7 +15525,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -15542,7 +15551,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -15568,7 +15577,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -15594,7 +15603,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -15620,7 +15629,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -15646,7 +15655,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -15672,7 +15681,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -15698,7 +15707,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -15724,7 +15733,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -15750,7 +15759,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -15776,7 +15785,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -15802,7 +15811,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -15828,7 +15837,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -15854,7 +15863,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -15880,7 +15889,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -15906,7 +15915,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -15932,7 +15941,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -15958,7 +15967,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -15984,7 +15993,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -16010,7 +16019,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -16036,7 +16045,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -16062,7 +16071,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -16088,7 +16097,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -16114,7 +16123,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -16140,7 +16149,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -16166,7 +16175,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="49" customFormat="1">
+    <row r="202" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -16192,7 +16201,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -16218,7 +16227,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -16244,7 +16253,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -16270,7 +16279,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -16296,7 +16305,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -16322,7 +16331,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -16348,7 +16357,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -16374,7 +16383,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -16400,7 +16409,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -16426,7 +16435,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -16452,7 +16461,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -16478,7 +16487,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -16504,7 +16513,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -16530,7 +16539,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -16556,7 +16565,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -16582,7 +16591,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -16608,7 +16617,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -16634,7 +16643,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -16660,7 +16669,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -16686,7 +16695,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -16712,7 +16721,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -16738,7 +16747,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -16764,7 +16773,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -16790,7 +16799,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -16816,7 +16825,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -16842,7 +16851,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>227</v>
       </c>
@@ -16868,7 +16877,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>228</v>
       </c>
@@ -16894,7 +16903,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>229</v>
       </c>
@@ -16920,7 +16929,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -16946,7 +16955,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>231</v>
       </c>
@@ -16972,7 +16981,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>232</v>
       </c>
@@ -16998,7 +17007,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>233</v>
       </c>
@@ -17024,7 +17033,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>234</v>
       </c>
@@ -17050,7 +17059,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>235</v>
       </c>
@@ -17076,7 +17085,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>236</v>
       </c>
@@ -17102,7 +17111,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>237</v>
       </c>
@@ -17128,7 +17137,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>238</v>
       </c>
@@ -17154,7 +17163,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>239</v>
       </c>
@@ -17180,7 +17189,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -17206,7 +17215,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>241</v>
       </c>
@@ -17232,7 +17241,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>242</v>
       </c>
@@ -17258,7 +17267,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>243</v>
       </c>
@@ -17284,7 +17293,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>244</v>
       </c>
@@ -17310,7 +17319,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>245</v>
       </c>
@@ -17336,7 +17345,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>246</v>
       </c>
@@ -17362,7 +17371,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>247</v>
       </c>
@@ -17388,7 +17397,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>248</v>
       </c>
@@ -17414,7 +17423,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>249</v>
       </c>
@@ -17440,7 +17449,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>250</v>
       </c>
@@ -17466,7 +17475,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>251</v>
       </c>
@@ -17492,7 +17501,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>252</v>
       </c>
@@ -17518,7 +17527,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>253</v>
       </c>
@@ -17544,7 +17553,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>254</v>
       </c>
@@ -17570,7 +17579,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>255</v>
       </c>
@@ -17596,7 +17605,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>256</v>
       </c>
@@ -17622,7 +17631,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>257</v>
       </c>
@@ -17648,7 +17657,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>258</v>
       </c>
@@ -17674,7 +17683,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>259</v>
       </c>
@@ -17700,7 +17709,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>260</v>
       </c>
@@ -17726,7 +17735,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>261</v>
       </c>
@@ -17752,7 +17761,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>262</v>
       </c>
@@ -17778,7 +17787,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>263</v>
       </c>
@@ -17804,7 +17813,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>264</v>
       </c>
@@ -17830,7 +17839,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>265</v>
       </c>
@@ -17856,7 +17865,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>266</v>
       </c>
@@ -17882,7 +17891,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>267</v>
       </c>
@@ -17908,7 +17917,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>268</v>
       </c>
@@ -17934,7 +17943,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>269</v>
       </c>
@@ -17960,7 +17969,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>270</v>
       </c>
@@ -17986,7 +17995,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>271</v>
       </c>
@@ -18012,7 +18021,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>272</v>
       </c>
@@ -18038,7 +18047,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>273</v>
       </c>
@@ -18064,7 +18073,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>274</v>
       </c>
@@ -18090,7 +18099,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>275</v>
       </c>
@@ -18116,7 +18125,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>276</v>
       </c>
@@ -18142,7 +18151,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>277</v>
       </c>
@@ -18168,7 +18177,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>278</v>
       </c>
@@ -18194,7 +18203,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>279</v>
       </c>
@@ -18220,7 +18229,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>280</v>
       </c>
@@ -18246,7 +18255,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>281</v>
       </c>
@@ -18272,7 +18281,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>282</v>
       </c>
@@ -18298,7 +18307,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>283</v>
       </c>
@@ -18324,7 +18333,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>284</v>
       </c>
@@ -18350,7 +18359,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>285</v>
       </c>
@@ -18376,7 +18385,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>286</v>
       </c>
@@ -18402,7 +18411,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>287</v>
       </c>
@@ -18428,7 +18437,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>288</v>
       </c>
@@ -18454,7 +18463,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>289</v>
       </c>
@@ -18480,7 +18489,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>290</v>
       </c>
@@ -18506,7 +18515,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>291</v>
       </c>
@@ -18532,7 +18541,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>292</v>
       </c>
@@ -18558,7 +18567,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>293</v>
       </c>
@@ -18584,7 +18593,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>294</v>
       </c>
@@ -18610,7 +18619,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>295</v>
       </c>
@@ -18636,7 +18645,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>296</v>
       </c>
@@ -18662,7 +18671,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>297</v>
       </c>
@@ -18688,7 +18697,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>298</v>
       </c>
@@ -18714,7 +18723,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>299</v>
       </c>
@@ -18740,7 +18749,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>300</v>
       </c>
@@ -18766,7 +18775,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>301</v>
       </c>
@@ -18792,7 +18801,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>302</v>
       </c>
@@ -18818,7 +18827,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>303</v>
       </c>
@@ -18844,7 +18853,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>304</v>
       </c>
@@ -18870,7 +18879,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>305</v>
       </c>
@@ -18896,7 +18905,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>306</v>
       </c>
@@ -18922,7 +18931,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>307</v>
       </c>
@@ -18948,7 +18957,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>308</v>
       </c>
@@ -18974,7 +18983,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>309</v>
       </c>
@@ -19000,7 +19009,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>310</v>
       </c>
@@ -19026,7 +19035,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>311</v>
       </c>
@@ -19052,7 +19061,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>312</v>
       </c>
@@ -19078,7 +19087,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>313</v>
       </c>
@@ -19104,7 +19113,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>314</v>
       </c>
@@ -19130,7 +19139,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>315</v>
       </c>
@@ -19156,7 +19165,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>316</v>
       </c>
@@ -19182,7 +19191,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>317</v>
       </c>
@@ -19208,7 +19217,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>318</v>
       </c>
@@ -19234,7 +19243,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>319</v>
       </c>
@@ -19260,7 +19269,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>320</v>
       </c>
@@ -19286,7 +19295,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>321</v>
       </c>
@@ -19312,7 +19321,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>322</v>
       </c>
@@ -19338,7 +19347,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>323</v>
       </c>
@@ -19364,7 +19373,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>324</v>
       </c>
@@ -19390,7 +19399,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>325</v>
       </c>
@@ -19416,7 +19425,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>326</v>
       </c>
@@ -19442,7 +19451,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>327</v>
       </c>
@@ -19468,7 +19477,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>328</v>
       </c>
@@ -19494,7 +19503,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>329</v>
       </c>
@@ -19520,7 +19529,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>330</v>
       </c>
@@ -19546,7 +19555,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>331</v>
       </c>
@@ -19572,7 +19581,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <v>332</v>
       </c>
@@ -19598,7 +19607,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>333</v>
       </c>
@@ -19624,7 +19633,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>334</v>
       </c>
@@ -19650,7 +19659,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>335</v>
       </c>
@@ -19676,7 +19685,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>336</v>
       </c>
@@ -19702,7 +19711,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>337</v>
       </c>
@@ -19728,7 +19737,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>338</v>
       </c>
@@ -19754,7 +19763,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>339</v>
       </c>
@@ -19780,7 +19789,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <v>340</v>
       </c>
@@ -19806,7 +19815,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <v>341</v>
       </c>
@@ -19832,7 +19841,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>342</v>
       </c>
@@ -19858,7 +19867,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>343</v>
       </c>
@@ -19884,7 +19893,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>344</v>
       </c>
@@ -19910,7 +19919,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>345</v>
       </c>
@@ -19936,7 +19945,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>346</v>
       </c>
@@ -19962,7 +19971,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>347</v>
       </c>
@@ -19988,7 +19997,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>348</v>
       </c>
@@ -20014,7 +20023,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>349</v>
       </c>
@@ -20040,7 +20049,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>350</v>
       </c>
@@ -20066,7 +20075,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>351</v>
       </c>
@@ -20092,7 +20101,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <v>352</v>
       </c>
@@ -20118,7 +20127,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>353</v>
       </c>
@@ -20144,7 +20153,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <v>354</v>
       </c>
@@ -20170,7 +20179,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <v>355</v>
       </c>
@@ -20196,7 +20205,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>356</v>
       </c>
@@ -20222,7 +20231,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>357</v>
       </c>
@@ -20248,7 +20257,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <v>358</v>
       </c>
@@ -20274,7 +20283,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <v>359</v>
       </c>
@@ -20300,7 +20309,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>360</v>
       </c>
@@ -20326,7 +20335,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>361</v>
       </c>
@@ -20352,7 +20361,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>362</v>
       </c>
@@ -20378,7 +20387,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>363</v>
       </c>
@@ -20404,7 +20413,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <v>364</v>
       </c>
@@ -20430,7 +20439,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <v>365</v>
       </c>
@@ -20456,7 +20465,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>366</v>
       </c>
@@ -20482,7 +20491,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <v>367</v>
       </c>
@@ -20508,7 +20517,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <v>368</v>
       </c>
@@ -20534,7 +20543,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <v>369</v>
       </c>
@@ -20560,7 +20569,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <v>370</v>
       </c>
@@ -20586,7 +20595,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <v>371</v>
       </c>
@@ -20612,7 +20621,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <v>372</v>
       </c>
@@ -20638,7 +20647,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>373</v>
       </c>
@@ -20664,7 +20673,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <v>374</v>
       </c>
@@ -20690,7 +20699,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
         <v>375</v>
       </c>
@@ -20716,7 +20725,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>376</v>
       </c>
@@ -20742,7 +20751,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>377</v>
       </c>
@@ -20768,7 +20777,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
         <v>378</v>
       </c>
@@ -20794,7 +20803,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
         <v>379</v>
       </c>
@@ -20820,7 +20829,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
         <v>380</v>
       </c>
@@ -20846,7 +20855,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
         <v>381</v>
       </c>
@@ -20872,7 +20881,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
         <v>382</v>
       </c>
@@ -20898,7 +20907,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
         <v>383</v>
       </c>
@@ -20924,7 +20933,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
         <v>384</v>
       </c>
@@ -20950,7 +20959,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
         <v>385</v>
       </c>
@@ -20976,7 +20985,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>386</v>
       </c>
@@ -21002,7 +21011,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
         <v>387</v>
       </c>
@@ -21028,7 +21037,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
         <v>388</v>
       </c>
@@ -21054,7 +21063,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
         <v>389</v>
       </c>
@@ -21080,7 +21089,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
         <v>390</v>
       </c>
@@ -21106,7 +21115,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>391</v>
       </c>
@@ -21132,7 +21141,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
         <v>392</v>
       </c>
@@ -21158,7 +21167,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>393</v>
       </c>
@@ -21184,7 +21193,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
         <v>394</v>
       </c>
@@ -21210,7 +21219,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
         <v>395</v>
       </c>
@@ -21236,7 +21245,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <v>396</v>
       </c>
@@ -21262,7 +21271,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
         <v>397</v>
       </c>
@@ -21288,7 +21297,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
         <v>398</v>
       </c>
@@ -21314,7 +21323,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
         <v>399</v>
       </c>
@@ -21340,7 +21349,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
         <v>400</v>
       </c>
@@ -21366,7 +21375,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
         <v>401</v>
       </c>
@@ -21392,7 +21401,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
         <v>402</v>
       </c>
@@ -21418,7 +21427,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
         <v>403</v>
       </c>
@@ -21444,7 +21453,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
         <v>404</v>
       </c>
@@ -21470,7 +21479,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
         <v>405</v>
       </c>
@@ -21496,7 +21505,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>406</v>
       </c>
@@ -21522,7 +21531,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
         <v>407</v>
       </c>
@@ -21548,7 +21557,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
         <v>408</v>
       </c>
@@ -21574,7 +21583,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
         <v>409</v>
       </c>
@@ -21600,7 +21609,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
         <v>410</v>
       </c>
@@ -21626,7 +21635,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
         <v>411</v>
       </c>
@@ -21652,7 +21661,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
         <v>412</v>
       </c>
@@ -21678,7 +21687,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
         <v>413</v>
       </c>
@@ -21704,7 +21713,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
         <v>414</v>
       </c>
@@ -21730,7 +21739,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
         <v>415</v>
       </c>
@@ -21756,7 +21765,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
         <v>416</v>
       </c>
@@ -21782,7 +21791,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>417</v>
       </c>
@@ -21808,7 +21817,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>418</v>
       </c>
@@ -21834,7 +21843,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
         <v>419</v>
       </c>
@@ -21860,7 +21869,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
         <v>420</v>
       </c>
@@ -21886,7 +21895,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
         <v>421</v>
       </c>
@@ -21912,7 +21921,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
         <v>422</v>
       </c>
@@ -21938,7 +21947,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
         <v>423</v>
       </c>
@@ -21964,7 +21973,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="4">
         <v>424</v>
       </c>
@@ -21990,7 +21999,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="4">
         <v>425</v>
       </c>
@@ -22016,7 +22025,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
         <v>426</v>
       </c>
@@ -22042,7 +22051,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
         <v>427</v>
       </c>
@@ -22068,7 +22077,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
         <v>428</v>
       </c>
@@ -22094,7 +22103,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
         <v>429</v>
       </c>
@@ -22120,7 +22129,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
         <v>430</v>
       </c>
@@ -22146,7 +22155,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
         <v>431</v>
       </c>
@@ -22172,7 +22181,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
         <v>432</v>
       </c>
@@ -22198,7 +22207,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
         <v>433</v>
       </c>
@@ -22224,7 +22233,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
         <v>434</v>
       </c>
@@ -22250,7 +22259,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
         <v>435</v>
       </c>
@@ -22276,7 +22285,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
         <v>436</v>
       </c>
@@ -22302,7 +22311,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
         <v>437</v>
       </c>
@@ -22328,7 +22337,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
         <v>438</v>
       </c>
@@ -22354,7 +22363,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
         <v>439</v>
       </c>
@@ -22380,7 +22389,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
         <v>440</v>
       </c>
@@ -22406,7 +22415,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
         <v>441</v>
       </c>
@@ -22432,7 +22441,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
         <v>442</v>
       </c>
@@ -22458,7 +22467,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
         <v>443</v>
       </c>
@@ -22484,7 +22493,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
         <v>444</v>
       </c>
@@ -22510,7 +22519,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="4">
         <v>445</v>
       </c>
@@ -22536,7 +22545,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
         <v>446</v>
       </c>
@@ -22562,7 +22571,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="4">
         <v>447</v>
       </c>
@@ -22588,7 +22597,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
         <v>448</v>
       </c>
@@ -22614,7 +22623,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
         <v>449</v>
       </c>
@@ -22640,7 +22649,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
         <v>450</v>
       </c>
@@ -22666,7 +22675,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
         <v>451</v>
       </c>
@@ -22692,7 +22701,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
         <v>452</v>
       </c>
@@ -22718,7 +22727,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
         <v>453</v>
       </c>
@@ -22744,7 +22753,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
         <v>454</v>
       </c>
@@ -22770,7 +22779,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
         <v>455</v>
       </c>
@@ -22796,7 +22805,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
         <v>456</v>
       </c>
@@ -22822,7 +22831,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
         <v>457</v>
       </c>
@@ -22848,7 +22857,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="4">
         <v>458</v>
       </c>
@@ -22874,7 +22883,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
         <v>459</v>
       </c>
@@ -22900,7 +22909,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
         <v>460</v>
       </c>
@@ -22926,7 +22935,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
         <v>461</v>
       </c>
@@ -22952,7 +22961,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
         <v>462</v>
       </c>
@@ -22978,7 +22987,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
         <v>463</v>
       </c>
@@ -23004,7 +23013,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
         <v>464</v>
       </c>
@@ -23030,7 +23039,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="4">
         <v>465</v>
       </c>
@@ -23056,7 +23065,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
         <v>466</v>
       </c>
@@ -23082,7 +23091,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
         <v>467</v>
       </c>
@@ -23108,7 +23117,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
         <v>468</v>
       </c>
@@ -23134,7 +23143,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
         <v>469</v>
       </c>
@@ -23160,7 +23169,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
         <v>470</v>
       </c>
@@ -23186,7 +23195,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
         <v>471</v>
       </c>
@@ -23212,7 +23221,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="4">
         <v>472</v>
       </c>
@@ -23238,7 +23247,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
         <v>473</v>
       </c>
@@ -23264,7 +23273,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
         <v>474</v>
       </c>
@@ -23290,7 +23299,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
         <v>475</v>
       </c>
@@ -23316,7 +23325,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
         <v>476</v>
       </c>
@@ -23342,7 +23351,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
         <v>477</v>
       </c>
@@ -23368,7 +23377,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="4">
         <v>478</v>
       </c>
@@ -23394,7 +23403,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
         <v>479</v>
       </c>
@@ -23420,7 +23429,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
         <v>480</v>
       </c>
@@ -23446,7 +23455,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
         <v>481</v>
       </c>
@@ -23472,7 +23481,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
         <v>482</v>
       </c>
@@ -23498,7 +23507,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="4">
         <v>483</v>
       </c>
@@ -23524,7 +23533,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="4">
         <v>484</v>
       </c>
@@ -23550,7 +23559,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="4">
         <v>485</v>
       </c>
@@ -23576,7 +23585,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
         <v>486</v>
       </c>
@@ -23602,7 +23611,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
         <v>487</v>
       </c>
@@ -23628,7 +23637,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
         <v>488</v>
       </c>
@@ -23654,7 +23663,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
         <v>489</v>
       </c>
@@ -23680,7 +23689,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="4">
         <v>490</v>
       </c>
@@ -23706,7 +23715,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
         <v>491</v>
       </c>
@@ -23732,7 +23741,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="4">
         <v>492</v>
       </c>
@@ -23758,7 +23767,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="4">
         <v>493</v>
       </c>
@@ -23784,7 +23793,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
         <v>494</v>
       </c>
@@ -23810,7 +23819,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="4">
         <v>495</v>
       </c>
@@ -23836,7 +23845,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="4">
         <v>496</v>
       </c>
@@ -23862,7 +23871,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
         <v>497</v>
       </c>
@@ -23888,7 +23897,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
         <v>498</v>
       </c>
@@ -23914,7 +23923,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
         <v>499</v>
       </c>
@@ -23940,7 +23949,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="4">
         <v>500</v>
       </c>
@@ -23966,7 +23975,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="4">
         <v>501</v>
       </c>
@@ -23992,7 +24001,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="4">
         <v>502</v>
       </c>
@@ -24018,7 +24027,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="4">
         <v>503</v>
       </c>
@@ -24044,7 +24053,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="4">
         <v>504</v>
       </c>
@@ -24070,7 +24079,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="4">
         <v>505</v>
       </c>
@@ -24096,7 +24105,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="4">
         <v>506</v>
       </c>
@@ -24122,7 +24131,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="4">
         <v>507</v>
       </c>
@@ -24148,7 +24157,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="4">
         <v>508</v>
       </c>
@@ -24174,7 +24183,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="4">
         <v>509</v>
       </c>
@@ -24200,7 +24209,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="4">
         <v>510</v>
       </c>
@@ -24226,7 +24235,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="4">
         <v>511</v>
       </c>
@@ -24252,7 +24261,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="4">
         <v>512</v>
       </c>
@@ -24278,7 +24287,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="4">
         <v>513</v>
       </c>
@@ -24304,7 +24313,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="4">
         <v>514</v>
       </c>
@@ -24330,7 +24339,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="4">
         <v>515</v>
       </c>
@@ -24356,7 +24365,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="4">
         <v>516</v>
       </c>
@@ -24382,7 +24391,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="4">
         <v>517</v>
       </c>
@@ -24408,7 +24417,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="4">
         <v>518</v>
       </c>
@@ -24434,7 +24443,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="4">
         <v>519</v>
       </c>
@@ -24460,7 +24469,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="4">
         <v>520</v>
       </c>
@@ -24486,7 +24495,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="4">
         <v>521</v>
       </c>
@@ -24512,7 +24521,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="4">
         <v>522</v>
       </c>
@@ -24538,7 +24547,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="4">
         <v>523</v>
       </c>
@@ -24564,7 +24573,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="4">
         <v>524</v>
       </c>
@@ -24590,7 +24599,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="4">
         <v>525</v>
       </c>
@@ -24616,7 +24625,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="4">
         <v>526</v>
       </c>
@@ -24642,7 +24651,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="4">
         <v>527</v>
       </c>
@@ -24668,7 +24677,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="4">
         <v>528</v>
       </c>
@@ -24694,7 +24703,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="4">
         <v>529</v>
       </c>
@@ -24720,7 +24729,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="4">
         <v>530</v>
       </c>
@@ -24746,7 +24755,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="4">
         <v>531</v>
       </c>
@@ -24772,7 +24781,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="4">
         <v>532</v>
       </c>
@@ -24798,7 +24807,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="4">
         <v>533</v>
       </c>
@@ -24824,7 +24833,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="4">
         <v>534</v>
       </c>
@@ -24850,7 +24859,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="4">
         <v>535</v>
       </c>
@@ -24876,7 +24885,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="4">
         <v>536</v>
       </c>
@@ -24902,7 +24911,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="4">
         <v>537</v>
       </c>
@@ -24928,7 +24937,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="4">
         <v>538</v>
       </c>
@@ -24954,7 +24963,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="4">
         <v>539</v>
       </c>
@@ -24980,7 +24989,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="4">
         <v>540</v>
       </c>
@@ -25006,7 +25015,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="4">
         <v>541</v>
       </c>
@@ -25032,7 +25041,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="4">
         <v>542</v>
       </c>
@@ -25058,7 +25067,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="4">
         <v>543</v>
       </c>
@@ -25084,7 +25093,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="4">
         <v>544</v>
       </c>
@@ -25110,7 +25119,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="4">
         <v>545</v>
       </c>
@@ -25136,7 +25145,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="4">
         <v>546</v>
       </c>
@@ -25162,7 +25171,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="4">
         <v>547</v>
       </c>
@@ -25188,7 +25197,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="4">
         <v>548</v>
       </c>
@@ -25214,7 +25223,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="4">
         <v>549</v>
       </c>
@@ -25240,7 +25249,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="4">
         <v>550</v>
       </c>
@@ -25266,7 +25275,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="4">
         <v>551</v>
       </c>
@@ -25292,7 +25301,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="4">
         <v>552</v>
       </c>
@@ -25318,7 +25327,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="4">
         <v>553</v>
       </c>
@@ -25344,7 +25353,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="4">
         <v>554</v>
       </c>
@@ -25370,7 +25379,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="4">
         <v>555</v>
       </c>
@@ -25396,7 +25405,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="4">
         <v>556</v>
       </c>
@@ -25407,7 +25416,7 @@
         <v>577</v>
       </c>
       <c r="D557" s="5" t="s">
-        <v>593</v>
+        <v>2501</v>
       </c>
       <c r="E557" s="5" t="s">
         <v>603</v>
@@ -25422,7 +25431,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="4">
         <v>557</v>
       </c>
@@ -25448,7 +25457,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="4">
         <v>558</v>
       </c>
@@ -25474,7 +25483,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="4">
         <v>559</v>
       </c>
@@ -25500,7 +25509,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="4">
         <v>560</v>
       </c>
@@ -25526,7 +25535,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="4">
         <v>561</v>
       </c>
@@ -25552,7 +25561,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="4">
         <v>562</v>
       </c>
@@ -25578,7 +25587,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="4">
         <v>563</v>
       </c>
@@ -25604,7 +25613,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="4">
         <v>564</v>
       </c>
@@ -25630,7 +25639,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="566" spans="1:8">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="4">
         <v>565</v>
       </c>
@@ -25656,7 +25665,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="567" spans="1:8">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="4">
         <v>566</v>
       </c>
@@ -25682,7 +25691,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="568" spans="1:8">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="4">
         <v>567</v>
       </c>
@@ -25708,7 +25717,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="4">
         <v>568</v>
       </c>
@@ -25734,7 +25743,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="570" spans="1:8">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="4">
         <v>569</v>
       </c>
@@ -25760,7 +25769,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="4">
         <v>570</v>
       </c>
@@ -25786,7 +25795,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="4">
         <v>571</v>
       </c>
@@ -25812,7 +25821,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="4">
         <v>572</v>
       </c>
@@ -25838,7 +25847,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" s="4">
         <v>573</v>
       </c>
@@ -25864,7 +25873,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" s="4">
         <v>574</v>
       </c>
@@ -25890,7 +25899,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" s="4">
         <v>575</v>
       </c>
@@ -25916,7 +25925,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" s="4">
         <v>576</v>
       </c>
@@ -25942,7 +25951,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" s="4">
         <v>577</v>
       </c>
@@ -25968,7 +25977,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" s="4">
         <v>578</v>
       </c>
@@ -25994,7 +26003,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" s="4">
         <v>579</v>
       </c>
@@ -26020,7 +26029,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" s="4">
         <v>580</v>
       </c>
@@ -26046,7 +26055,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" s="4">
         <v>581</v>
       </c>
@@ -26072,7 +26081,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" s="4">
         <v>582</v>
       </c>
@@ -26098,7 +26107,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="4">
         <v>583</v>
       </c>
@@ -26124,7 +26133,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" s="4">
         <v>584</v>
       </c>
@@ -26150,7 +26159,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" s="4">
         <v>585</v>
       </c>
@@ -26176,7 +26185,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" s="4">
         <v>586</v>
       </c>
@@ -26202,7 +26211,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="4">
         <v>587</v>
       </c>
@@ -26228,7 +26237,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" s="4">
         <v>588</v>
       </c>
@@ -26254,7 +26263,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="4">
         <v>589</v>
       </c>
@@ -26280,7 +26289,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" s="4">
         <v>590</v>
       </c>
@@ -26306,7 +26315,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="4">
         <v>591</v>
       </c>
@@ -26332,7 +26341,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="4">
         <v>592</v>
       </c>
@@ -26358,7 +26367,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="4">
         <v>593</v>
       </c>
@@ -26384,7 +26393,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="4">
         <v>594</v>
       </c>
@@ -26410,7 +26419,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="4">
         <v>595</v>
       </c>
@@ -26436,7 +26445,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="4">
         <v>596</v>
       </c>
@@ -26462,7 +26471,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" s="4">
         <v>597</v>
       </c>
@@ -26488,7 +26497,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="4">
         <v>598</v>
       </c>
@@ -26514,7 +26523,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="4">
         <v>599</v>
       </c>
@@ -26540,7 +26549,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" s="4">
         <v>600</v>
       </c>
@@ -26566,7 +26575,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" s="4">
         <v>601</v>
       </c>
@@ -26592,7 +26601,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="603" spans="1:8">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="4">
         <v>602</v>
       </c>
@@ -26618,7 +26627,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" s="4">
         <v>603</v>
       </c>
@@ -26644,7 +26653,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="605" spans="1:8">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" s="4">
         <v>604</v>
       </c>
@@ -26670,7 +26679,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="4">
         <v>605</v>
       </c>
@@ -26696,7 +26705,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="607" spans="1:8">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" s="4">
         <v>606</v>
       </c>
@@ -26722,7 +26731,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" s="4">
         <v>607</v>
       </c>
@@ -26748,7 +26757,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="4">
         <v>608</v>
       </c>
@@ -26774,7 +26783,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" s="4">
         <v>609</v>
       </c>
@@ -26800,7 +26809,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="4">
         <v>610</v>
       </c>
@@ -26826,7 +26835,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="4">
         <v>611</v>
       </c>
@@ -26852,7 +26861,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="4">
         <v>612</v>
       </c>
@@ -26878,7 +26887,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" s="4">
         <v>613</v>
       </c>
@@ -26904,7 +26913,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" s="4">
         <v>614</v>
       </c>
@@ -26930,7 +26939,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" s="4">
         <v>615</v>
       </c>
@@ -26956,7 +26965,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" s="4">
         <v>616</v>
       </c>
@@ -26982,7 +26991,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="4">
         <v>617</v>
       </c>
@@ -27008,7 +27017,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" s="4">
         <v>618</v>
       </c>
@@ -27034,7 +27043,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" s="4">
         <v>619</v>
       </c>
@@ -27060,7 +27069,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" s="4">
         <v>620</v>
       </c>
@@ -27086,7 +27095,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" s="4">
         <v>621</v>
       </c>
@@ -27112,7 +27121,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" s="4">
         <v>622</v>
       </c>
@@ -27138,7 +27147,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="4">
         <v>623</v>
       </c>
@@ -27164,7 +27173,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" s="4">
         <v>624</v>
       </c>
@@ -27190,7 +27199,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" s="4">
         <v>625</v>
       </c>
@@ -27216,7 +27225,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" s="4">
         <v>626</v>
       </c>
@@ -27242,7 +27251,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" s="4">
         <v>627</v>
       </c>
@@ -27268,7 +27277,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" s="4">
         <v>628</v>
       </c>
@@ -27294,7 +27303,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="4">
         <v>629</v>
       </c>
@@ -27320,7 +27329,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" s="4">
         <v>630</v>
       </c>
@@ -27346,7 +27355,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="4">
         <v>631</v>
       </c>
@@ -27372,7 +27381,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" s="4">
         <v>632</v>
       </c>
@@ -27398,7 +27407,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" s="4">
         <v>633</v>
       </c>
@@ -27424,7 +27433,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" s="4">
         <v>634</v>
       </c>
@@ -27450,7 +27459,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="4">
         <v>635</v>
       </c>
@@ -27476,7 +27485,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" s="4">
         <v>636</v>
       </c>
@@ -27502,7 +27511,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="4">
         <v>637</v>
       </c>
@@ -27528,7 +27537,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="4">
         <v>638</v>
       </c>
@@ -27554,7 +27563,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="640" spans="1:8">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="4">
         <v>639</v>
       </c>
@@ -27580,7 +27589,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="641" spans="1:8">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" s="4">
         <v>640</v>
       </c>
@@ -27606,7 +27615,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="642" spans="1:8">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" s="4">
         <v>641</v>
       </c>
@@ -27632,7 +27641,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" s="4">
         <v>642</v>
       </c>
@@ -27658,7 +27667,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="644" spans="1:8">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" s="4">
         <v>643</v>
       </c>
@@ -27684,7 +27693,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" s="4">
         <v>644</v>
       </c>
@@ -27710,7 +27719,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" s="4">
         <v>645</v>
       </c>
@@ -27736,7 +27745,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" s="4">
         <v>646</v>
       </c>
@@ -27762,7 +27771,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" s="4">
         <v>647</v>
       </c>
@@ -27788,7 +27797,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" s="4">
         <v>648</v>
       </c>
@@ -27814,7 +27823,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" s="4">
         <v>649</v>
       </c>
@@ -27840,7 +27849,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" s="4">
         <v>650</v>
       </c>
@@ -27866,7 +27875,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" s="4">
         <v>651</v>
       </c>
@@ -27892,7 +27901,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" s="4">
         <v>652</v>
       </c>
@@ -27918,7 +27927,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" s="4">
         <v>653</v>
       </c>
@@ -27944,7 +27953,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" s="4">
         <v>654</v>
       </c>
@@ -27970,7 +27979,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" s="4">
         <v>655</v>
       </c>
@@ -27996,7 +28005,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657" s="4">
         <v>656</v>
       </c>
@@ -28022,7 +28031,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" s="4">
         <v>657</v>
       </c>
@@ -28048,7 +28057,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" s="4">
         <v>658</v>
       </c>
@@ -28074,7 +28083,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" s="4">
         <v>659</v>
       </c>
@@ -28100,7 +28109,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" s="4">
         <v>660</v>
       </c>
@@ -28126,7 +28135,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" s="4">
         <v>661</v>
       </c>
@@ -28152,7 +28161,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" s="4">
         <v>662</v>
       </c>
@@ -28178,7 +28187,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" s="4">
         <v>663</v>
       </c>
@@ -28204,7 +28213,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" s="4">
         <v>664</v>
       </c>
@@ -28230,7 +28239,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" s="4">
         <v>665</v>
       </c>
@@ -28256,7 +28265,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667" s="4">
         <v>666</v>
       </c>
@@ -28282,7 +28291,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668" s="4">
         <v>667</v>
       </c>
@@ -28308,7 +28317,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669" s="4">
         <v>668</v>
       </c>
@@ -28334,7 +28343,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670" s="4">
         <v>669</v>
       </c>
@@ -28360,7 +28369,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671" s="4">
         <v>670</v>
       </c>
@@ -28386,7 +28395,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672" s="4">
         <v>671</v>
       </c>
@@ -28412,7 +28421,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" s="4">
         <v>672</v>
       </c>
@@ -28438,7 +28447,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" s="4">
         <v>673</v>
       </c>
@@ -28464,7 +28473,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" s="4">
         <v>674</v>
       </c>
@@ -28490,7 +28499,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" s="4">
         <v>675</v>
       </c>
@@ -28516,7 +28525,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="677" spans="1:8">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="4">
         <v>676</v>
       </c>
@@ -28542,7 +28551,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="678" spans="1:8">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" s="4">
         <v>677</v>
       </c>
@@ -28568,7 +28577,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="679" spans="1:8">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" s="4">
         <v>678</v>
       </c>
@@ -28594,7 +28603,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" s="4">
         <v>679</v>
       </c>
@@ -28620,7 +28629,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="681" spans="1:8">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" s="4">
         <v>680</v>
       </c>
@@ -28646,7 +28655,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" s="4">
         <v>681</v>
       </c>
@@ -28672,7 +28681,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" s="4">
         <v>682</v>
       </c>
@@ -28698,7 +28707,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" s="4">
         <v>683</v>
       </c>
@@ -28724,7 +28733,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" s="4">
         <v>684</v>
       </c>
@@ -28750,7 +28759,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" s="4">
         <v>685</v>
       </c>
@@ -28776,7 +28785,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" s="4">
         <v>686</v>
       </c>
@@ -28802,7 +28811,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" s="4">
         <v>687</v>
       </c>
@@ -28828,7 +28837,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689" s="4">
         <v>688</v>
       </c>
@@ -28854,7 +28863,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" s="4">
         <v>689</v>
       </c>
@@ -28880,7 +28889,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691" s="4">
         <v>690</v>
       </c>
@@ -28906,7 +28915,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692" s="4">
         <v>691</v>
       </c>
@@ -28932,7 +28941,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693" s="4">
         <v>692</v>
       </c>
@@ -28958,7 +28967,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694" s="4">
         <v>693</v>
       </c>
@@ -28984,7 +28993,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695" s="4">
         <v>694</v>
       </c>
@@ -29010,7 +29019,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" s="4">
         <v>695</v>
       </c>
@@ -29036,7 +29045,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697" s="4">
         <v>696</v>
       </c>
@@ -29062,7 +29071,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698" s="4">
         <v>697</v>
       </c>
@@ -29088,7 +29097,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699" s="4">
         <v>698</v>
       </c>
@@ -29114,7 +29123,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" s="4">
         <v>699</v>
       </c>
@@ -29140,7 +29149,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701" s="4">
         <v>700</v>
       </c>
@@ -29166,7 +29175,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702" s="4">
         <v>701</v>
       </c>
@@ -29192,7 +29201,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" s="4">
         <v>702</v>
       </c>
@@ -29218,7 +29227,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704" s="4">
         <v>703</v>
       </c>
@@ -29244,7 +29253,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705" s="4">
         <v>704</v>
       </c>
@@ -29270,7 +29279,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" s="4">
         <v>705</v>
       </c>
@@ -29296,7 +29305,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" s="4">
         <v>706</v>
       </c>
@@ -29322,7 +29331,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" s="4">
         <v>707</v>
       </c>
@@ -29348,7 +29357,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" s="4">
         <v>708</v>
       </c>
@@ -29374,7 +29383,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" s="4">
         <v>709</v>
       </c>
@@ -29400,7 +29409,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" s="4">
         <v>710</v>
       </c>
@@ -29426,7 +29435,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" s="4">
         <v>711</v>
       </c>
@@ -29452,7 +29461,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" s="4">
         <v>712</v>
       </c>
@@ -29478,7 +29487,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="714" spans="1:8">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" s="4">
         <v>713</v>
       </c>
@@ -29504,7 +29513,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="715" spans="1:8">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" s="4">
         <v>714</v>
       </c>
@@ -29530,7 +29539,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="716" spans="1:8">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" s="4">
         <v>715</v>
       </c>
@@ -29556,7 +29565,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" s="4">
         <v>716</v>
       </c>
@@ -29582,7 +29591,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="718" spans="1:8">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" s="4">
         <v>717</v>
       </c>
@@ -29608,7 +29617,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" s="4">
         <v>718</v>
       </c>
@@ -29634,7 +29643,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" s="4">
         <v>719</v>
       </c>
@@ -29660,7 +29669,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" s="4">
         <v>720</v>
       </c>
@@ -29686,7 +29695,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" s="4">
         <v>721</v>
       </c>
@@ -29712,7 +29721,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" s="4">
         <v>722</v>
       </c>
@@ -29738,7 +29747,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" s="4">
         <v>723</v>
       </c>
@@ -29764,7 +29773,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="725" spans="1:8">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725" s="4">
         <v>724</v>
       </c>
@@ -29790,7 +29799,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="726" spans="1:8">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726" s="4">
         <v>725</v>
       </c>
@@ -29816,7 +29825,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727" s="4">
         <v>726</v>
       </c>
@@ -29842,7 +29851,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728" s="4">
         <v>727</v>
       </c>
@@ -29868,7 +29877,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729" s="4">
         <v>728</v>
       </c>
@@ -29894,7 +29903,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730" s="4">
         <v>729</v>
       </c>
@@ -29920,7 +29929,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731" s="4">
         <v>730</v>
       </c>
@@ -29946,7 +29955,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="732" spans="1:8">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732" s="4">
         <v>731</v>
       </c>
@@ -29972,7 +29981,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="733" spans="1:8">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733" s="4">
         <v>732</v>
       </c>
@@ -29998,7 +30007,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="734" spans="1:8">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734" s="4">
         <v>733</v>
       </c>
@@ -30024,7 +30033,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="735" spans="1:8">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735" s="4">
         <v>734</v>
       </c>
@@ -30050,7 +30059,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736" s="4">
         <v>735</v>
       </c>
@@ -30076,7 +30085,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="737" spans="1:8">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737" s="4">
         <v>736</v>
       </c>
@@ -30102,7 +30111,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="738" spans="1:8">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738" s="4">
         <v>737</v>
       </c>
@@ -30128,7 +30137,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="739" spans="1:8">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739" s="4">
         <v>738</v>
       </c>
@@ -30154,7 +30163,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="740" spans="1:8">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" s="4">
         <v>739</v>
       </c>
@@ -30180,7 +30189,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="741" spans="1:8">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741" s="4">
         <v>740</v>
       </c>
@@ -30206,7 +30215,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="742" spans="1:8">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" s="4">
         <v>741</v>
       </c>
@@ -30232,7 +30241,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="743" spans="1:8">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743" s="4">
         <v>742</v>
       </c>
@@ -30258,7 +30267,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="744" spans="1:8">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744" s="4">
         <v>743</v>
       </c>
@@ -30284,7 +30293,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="745" spans="1:8">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745" s="4">
         <v>744</v>
       </c>
@@ -30310,7 +30319,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="746" spans="1:8">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746" s="4">
         <v>745</v>
       </c>
@@ -30336,7 +30345,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="747" spans="1:8">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747" s="4">
         <v>746</v>
       </c>
@@ -30362,7 +30371,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="748" spans="1:8">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748" s="4">
         <v>747</v>
       </c>
@@ -30388,7 +30397,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="749" spans="1:8">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749" s="4">
         <v>748</v>
       </c>
@@ -30414,7 +30423,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="750" spans="1:8">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750" s="4">
         <v>749</v>
       </c>
@@ -30440,7 +30449,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="751" spans="1:8">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A751" s="4">
         <v>750</v>
       </c>
@@ -30466,7 +30475,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="752" spans="1:8">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A752" s="4">
         <v>751</v>
       </c>
@@ -30492,7 +30501,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="753" spans="1:8">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A753" s="4">
         <v>752</v>
       </c>
@@ -30518,7 +30527,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="754" spans="1:8">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" s="4">
         <v>753</v>
       </c>
@@ -30544,7 +30553,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="755" spans="1:8">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A755" s="4">
         <v>754</v>
       </c>
@@ -30570,7 +30579,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="756" spans="1:8">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" s="4">
         <v>755</v>
       </c>
@@ -30596,7 +30605,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="757" spans="1:8">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" s="4">
         <v>756</v>
       </c>
@@ -30622,7 +30631,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="758" spans="1:8">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758" s="4">
         <v>757</v>
       </c>
@@ -30648,7 +30657,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="759" spans="1:8">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759" s="4">
         <v>758</v>
       </c>
@@ -30674,7 +30683,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="760" spans="1:8">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760" s="4">
         <v>759</v>
       </c>
@@ -30700,7 +30709,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="761" spans="1:8">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761" s="4">
         <v>760</v>
       </c>
@@ -30726,7 +30735,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="762" spans="1:8">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762" s="4">
         <v>761</v>
       </c>
@@ -30752,7 +30761,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="763" spans="1:8">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763" s="4">
         <v>762</v>
       </c>
@@ -30778,7 +30787,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="764" spans="1:8">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764" s="4">
         <v>763</v>
       </c>
@@ -30804,7 +30813,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="765" spans="1:8">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765" s="4">
         <v>764</v>
       </c>
@@ -30830,7 +30839,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="766" spans="1:8">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766" s="4">
         <v>765</v>
       </c>
@@ -30856,7 +30865,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="767" spans="1:8">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767" s="4">
         <v>766</v>
       </c>
@@ -30882,7 +30891,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="768" spans="1:8">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768" s="4">
         <v>767</v>
       </c>
@@ -30908,7 +30917,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769" s="4">
         <v>768</v>
       </c>
@@ -30934,7 +30943,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770" s="4">
         <v>769</v>
       </c>
@@ -30960,7 +30969,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771" s="4">
         <v>770</v>
       </c>
@@ -30986,7 +30995,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772" s="4">
         <v>771</v>
       </c>
@@ -31012,7 +31021,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="773" spans="1:8">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773" s="4">
         <v>772</v>
       </c>
@@ -31038,7 +31047,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="774" spans="1:8">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774" s="4">
         <v>773</v>
       </c>
@@ -31064,7 +31073,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775" s="4">
         <v>774</v>
       </c>
@@ -31090,7 +31099,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776" s="4">
         <v>775</v>
       </c>
@@ -31116,7 +31125,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777" s="4">
         <v>776</v>
       </c>
@@ -31142,7 +31151,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778" s="4">
         <v>777</v>
       </c>
@@ -31168,7 +31177,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779" s="4">
         <v>778</v>
       </c>
@@ -31194,7 +31203,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780" s="4">
         <v>779</v>
       </c>
@@ -31220,7 +31229,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781" s="4">
         <v>780</v>
       </c>
@@ -31246,7 +31255,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="782" spans="1:8">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782" s="4">
         <v>781</v>
       </c>
@@ -31272,7 +31281,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783" s="4">
         <v>782</v>
       </c>
@@ -31298,7 +31307,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784" s="4">
         <v>783</v>
       </c>
@@ -31324,7 +31333,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="785" spans="1:8">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785" s="4">
         <v>784</v>
       </c>
@@ -31350,7 +31359,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="786" spans="1:8">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786" s="4">
         <v>785</v>
       </c>
@@ -31376,7 +31385,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="787" spans="1:8">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787" s="4">
         <v>786</v>
       </c>
@@ -31402,7 +31411,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="788" spans="1:8">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A788" s="4">
         <v>787</v>
       </c>
@@ -31428,7 +31437,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="789" spans="1:8">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A789" s="4">
         <v>788</v>
       </c>
@@ -31454,7 +31463,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="790" spans="1:8">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A790" s="4">
         <v>789</v>
       </c>
@@ -31480,7 +31489,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="791" spans="1:8">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" s="4">
         <v>790</v>
       </c>
@@ -31506,7 +31515,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="792" spans="1:8">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A792" s="4">
         <v>791</v>
       </c>
@@ -31532,7 +31541,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="793" spans="1:8">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" s="4">
         <v>792</v>
       </c>
@@ -31558,7 +31567,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="794" spans="1:8">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" s="4">
         <v>793</v>
       </c>
@@ -31584,7 +31593,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="795" spans="1:8">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795" s="4">
         <v>794</v>
       </c>
@@ -31610,7 +31619,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="796" spans="1:8">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796" s="4">
         <v>795</v>
       </c>
@@ -31636,7 +31645,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="797" spans="1:8">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797" s="4">
         <v>796</v>
       </c>
@@ -31662,7 +31671,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="798" spans="1:8">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798" s="4">
         <v>797</v>
       </c>
@@ -31688,7 +31697,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="799" spans="1:8">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799" s="4">
         <v>798</v>
       </c>
@@ -31714,7 +31723,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="800" spans="1:8">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800" s="4">
         <v>799</v>
       </c>
@@ -31740,7 +31749,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="801" spans="1:8">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801" s="4">
         <v>800</v>
       </c>
@@ -31766,7 +31775,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="802" spans="1:8">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802" s="4">
         <v>801</v>
       </c>
@@ -31792,7 +31801,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="803" spans="1:8">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803" s="4">
         <v>802</v>
       </c>
@@ -31818,7 +31827,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="804" spans="1:8">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804" s="4">
         <v>803</v>
       </c>
@@ -31844,7 +31853,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="805" spans="1:8">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805" s="4">
         <v>804</v>
       </c>
@@ -31870,7 +31879,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="806" spans="1:8">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806" s="4">
         <v>805</v>
       </c>
@@ -31896,7 +31905,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="807" spans="1:8">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807" s="4">
         <v>806</v>
       </c>
@@ -31922,7 +31931,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="808" spans="1:8">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808" s="4">
         <v>807</v>
       </c>
@@ -31948,7 +31957,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="809" spans="1:8">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809" s="4">
         <v>808</v>
       </c>
@@ -31974,7 +31983,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="810" spans="1:8">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810" s="4">
         <v>809</v>
       </c>
@@ -32000,7 +32009,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="811" spans="1:8">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811" s="4">
         <v>810</v>
       </c>
@@ -32026,7 +32035,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="812" spans="1:8">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812" s="4">
         <v>811</v>
       </c>
@@ -32052,7 +32061,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="813" spans="1:8">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813" s="4">
         <v>812</v>
       </c>
@@ -32078,7 +32087,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="814" spans="1:8">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814" s="4">
         <v>813</v>
       </c>
@@ -32104,7 +32113,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="815" spans="1:8">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815" s="4">
         <v>814</v>
       </c>
@@ -32130,7 +32139,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="816" spans="1:8">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816" s="4">
         <v>815</v>
       </c>
@@ -32156,7 +32165,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817" s="4">
         <v>816</v>
       </c>
@@ -32182,7 +32191,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="818" spans="1:8">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818" s="4">
         <v>817</v>
       </c>
@@ -32208,7 +32217,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="819" spans="1:8">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819" s="4">
         <v>818</v>
       </c>
@@ -32234,7 +32243,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="820" spans="1:8">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820" s="4">
         <v>819</v>
       </c>
@@ -32260,7 +32269,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="821" spans="1:8">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821" s="4">
         <v>820</v>
       </c>
@@ -32286,7 +32295,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="822" spans="1:8">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822" s="4">
         <v>821</v>
       </c>
@@ -32312,7 +32321,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="823" spans="1:8">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823" s="4">
         <v>822</v>
       </c>
@@ -32338,7 +32347,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="824" spans="1:8">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824" s="4">
         <v>823</v>
       </c>
@@ -32364,7 +32373,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="825" spans="1:8">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A825" s="4">
         <v>824</v>
       </c>
@@ -32390,7 +32399,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="826" spans="1:8">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A826" s="4">
         <v>825</v>
       </c>
@@ -32416,7 +32425,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="827" spans="1:8">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A827" s="4">
         <v>826</v>
       </c>
@@ -32442,7 +32451,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="828" spans="1:8">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" s="4">
         <v>827</v>
       </c>
@@ -32468,7 +32477,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="829" spans="1:8">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A829" s="4">
         <v>828</v>
       </c>
@@ -32494,7 +32503,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="830" spans="1:8">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830" s="4">
         <v>829</v>
       </c>
@@ -32520,7 +32529,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="831" spans="1:8">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831" s="4">
         <v>830</v>
       </c>
@@ -32546,7 +32555,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="832" spans="1:8">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A832" s="4">
         <v>831</v>
       </c>
@@ -32572,7 +32581,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="833" spans="1:8">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833" s="4">
         <v>832</v>
       </c>
@@ -32598,7 +32607,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="834" spans="1:8">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834" s="4">
         <v>833</v>
       </c>
@@ -32624,7 +32633,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="835" spans="1:8">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835" s="4">
         <v>834</v>
       </c>
@@ -32650,7 +32659,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="836" spans="1:8">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A836" s="4">
         <v>835</v>
       </c>
@@ -32676,7 +32685,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="837" spans="1:8">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837" s="4">
         <v>836</v>
       </c>
@@ -32702,7 +32711,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="838" spans="1:8">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A838" s="4">
         <v>837</v>
       </c>
@@ -32728,7 +32737,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="839" spans="1:8">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839" s="4">
         <v>838</v>
       </c>
@@ -32754,7 +32763,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="840" spans="1:8">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A840" s="4">
         <v>839</v>
       </c>
@@ -32780,7 +32789,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="841" spans="1:8">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841" s="4">
         <v>840</v>
       </c>
@@ -32806,7 +32815,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="842" spans="1:8">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842" s="4">
         <v>841</v>
       </c>
@@ -32832,7 +32841,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="843" spans="1:8">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843" s="4">
         <v>842</v>
       </c>
@@ -32858,7 +32867,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="844" spans="1:8">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844" s="4">
         <v>843</v>
       </c>
@@ -32884,7 +32893,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="845" spans="1:8">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845" s="4">
         <v>844</v>
       </c>
@@ -32910,7 +32919,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="846" spans="1:8">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846" s="4">
         <v>845</v>
       </c>
@@ -32936,7 +32945,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="847" spans="1:8">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847" s="4">
         <v>846</v>
       </c>
@@ -32962,7 +32971,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848" s="4">
         <v>847</v>
       </c>
@@ -32988,7 +32997,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="849" spans="1:8">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849" s="4">
         <v>848</v>
       </c>
@@ -33014,7 +33023,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="850" spans="1:8">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A850" s="4">
         <v>849</v>
       </c>
@@ -33040,7 +33049,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="851" spans="1:8">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A851" s="4">
         <v>850</v>
       </c>
@@ -33066,7 +33075,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="852" spans="1:8">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A852" s="4">
         <v>851</v>
       </c>
@@ -33092,7 +33101,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A853" s="4">
         <v>852</v>
       </c>
@@ -33118,7 +33127,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A854" s="4">
         <v>853</v>
       </c>
@@ -33144,7 +33153,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A855" s="4">
         <v>854</v>
       </c>
@@ -33170,7 +33179,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A856" s="4">
         <v>855</v>
       </c>
@@ -33196,7 +33205,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A857" s="4">
         <v>856</v>
       </c>
@@ -33222,7 +33231,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A858" s="4">
         <v>857</v>
       </c>
@@ -33248,7 +33257,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A859" s="4">
         <v>858</v>
       </c>
@@ -33274,7 +33283,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860" s="4">
         <v>859</v>
       </c>
@@ -33300,7 +33309,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861" s="4">
         <v>860</v>
       </c>
@@ -33326,7 +33335,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="862" spans="1:8">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A862" s="4">
         <v>861</v>
       </c>
@@ -33352,7 +33361,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="863" spans="1:8">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A863" s="4">
         <v>862</v>
       </c>
@@ -33378,7 +33387,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="864" spans="1:8">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A864" s="4">
         <v>863</v>
       </c>
@@ -33404,7 +33413,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A865" s="4">
         <v>864</v>
       </c>
@@ -33430,7 +33439,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="866" spans="1:8">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A866" s="4">
         <v>865</v>
       </c>
@@ -33456,7 +33465,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A867" s="4">
         <v>866</v>
       </c>
@@ -33482,7 +33491,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A868" s="4">
         <v>867</v>
       </c>
@@ -33508,7 +33517,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A869" s="4">
         <v>868</v>
       </c>
@@ -33534,7 +33543,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="870" spans="1:8">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A870" s="4">
         <v>869</v>
       </c>
@@ -33560,7 +33569,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A871" s="13"/>
       <c r="B871" s="43"/>
       <c r="C871" s="14"/>
